--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2029764.622479791</v>
+        <v>2038457.948767433</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7431891.992579306</v>
+        <v>7431891.992579308</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,64 +668,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.01467844038824</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>89.29749682216323</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,64 +905,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>202.2946864288972</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>190.1066023865956</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.10948635297698</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>170.6554636898985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,61 +1142,61 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>58.39471844666272</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.580549094716531</v>
+        <v>102.9569757728545</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>117.889549819912</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>188.3396827868512</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>167.0918869329224</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1546,7 +1546,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>152.9376416850984</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
@@ -1743,13 +1743,13 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>121.4165796131833</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>154.2282790647271</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>147.347200282567</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,25 +1844,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>117.889549819912</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>48.37669028362031</v>
+        <v>46.42671957066515</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>9.494009160888949</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.26585203414595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>13.76539744312569</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
@@ -2144,10 +2144,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.25144273425413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>53.92880121529013</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.8482076906871</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>208.1655376078257</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>188.5187051045597</v>
       </c>
       <c r="H23" t="n">
-        <v>232.6976319503262</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2412,10 +2412,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>36.29588146532124</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.970532483588</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>43.03218749909144</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>140.7017484046721</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
@@ -2573,7 +2573,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>259.7945090615787</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,19 +2640,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>104.262613881998</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>94.29868824106237</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>50.15718953603411</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>15.5869617472498</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>244.322178102457</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.8482076906877</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>176.8310480250585</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>117.8895498199124</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>53.92880121529013</v>
+        <v>183.2702177270811</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.48436605885001</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>77.74590681794307</v>
       </c>
       <c r="H35" t="n">
-        <v>314.5632860576703</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3354,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>67.72818279609811</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>60.36693997173244</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>84.19726042970161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>9.090676859748122</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>130.325091052254</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>170.6617166031552</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>119.3260324149127</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.8803768022634</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.9863001918263</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>280.9736574239679</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>21.65605051587607</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>15.31220406845842</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>283.2939540342562</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>93.90727742760758</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4059,10 +4059,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>107.8142557797791</v>
       </c>
       <c r="E45" t="n">
-        <v>1.850456720369667</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,7 +4071,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -4135,16 +4135,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4177,22 +4177,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.40708194790164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>43.35606979968811</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>559.1338160830064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4419,10 +4419,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>528.5815077689649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4650,10 +4650,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>690.5083698110992</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>462.2847515474883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.7844730889342</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C8" t="n">
-        <v>333.7844730889342</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>333.7844730889342</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7844730889342</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>90.33569644483418</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>333.7844730889342</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>528.5815077689649</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.90796037760316</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C11" t="n">
-        <v>46.89499644164432</v>
+        <v>1975.787305141805</v>
       </c>
       <c r="D11" t="n">
-        <v>46.89499644164432</v>
+        <v>1617.521606535054</v>
       </c>
       <c r="E11" t="n">
-        <v>46.89499644164432</v>
+        <v>1231.73335393681</v>
       </c>
       <c r="F11" t="n">
-        <v>46.89499644164432</v>
+        <v>820.7474491472024</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>402.4756816300872</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>556.1146817709025</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>165.9753497950908</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5121,7 +5121,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
         <v>705.6153558007836</v>
@@ -5130,13 +5130,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5145,25 +5145,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U12" t="n">
-        <v>1923.529830251457</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="13">
@@ -5200,7 +5200,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
         <v>2115.893810642661</v>
@@ -5276,16 +5276,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5300,28 +5300,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5355,46 +5355,46 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V15" t="n">
-        <v>1572.706356195328</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="X15" t="n">
         <v>1364.854855989795</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5440,46 +5440,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826211</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2344.749822082216</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5634,10 +5634,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1157.094557224842</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>225.4210876128734</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>56.48490468496649</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>56.48490468496649</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>56.48490468496649</v>
       </c>
       <c r="F19" t="n">
         <v>46.89499644164432</v>
@@ -5695,28 +5695,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V19" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W19" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="X19" t="n">
-        <v>90.597877284216</v>
+        <v>225.4210876128734</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>225.4210876128734</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>457.8809012312519</v>
+        <v>837.3369044272531</v>
       </c>
       <c r="C20" t="n">
-        <v>457.8809012312519</v>
+        <v>837.3369044272531</v>
       </c>
       <c r="D20" t="n">
-        <v>457.8809012312519</v>
+        <v>479.0712058205026</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8809012312519</v>
+        <v>479.0712058205026</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
         <v>46.89499644164432</v>
@@ -5750,16 +5750,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>1576.705399761489</v>
       </c>
       <c r="W20" t="n">
-        <v>929.5804400319823</v>
+        <v>1223.936744491375</v>
       </c>
       <c r="X20" t="n">
-        <v>556.1146817709025</v>
+        <v>1223.936744491375</v>
       </c>
       <c r="Y20" t="n">
-        <v>457.8809012312519</v>
+        <v>1223.936744491375</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5841,13 +5841,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5856,25 +5856,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2290.276285501115</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T21" t="n">
-        <v>2290.276285501115</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>356.5160938960355</v>
+        <v>205.3275294625404</v>
       </c>
       <c r="C22" t="n">
-        <v>356.5160938960355</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>356.5160938960355</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>356.5160938960355</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5160938960355</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5929,31 +5929,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>356.5160938960355</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>356.5160938960355</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y22" t="n">
-        <v>356.5160938960355</v>
+        <v>386.9759942927801</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1971.284063821136</v>
+        <v>1477.059072784989</v>
       </c>
       <c r="C23" t="n">
-        <v>1602.321546880725</v>
+        <v>1477.059072784989</v>
       </c>
       <c r="D23" t="n">
-        <v>1244.055848273974</v>
+        <v>1118.793374178238</v>
       </c>
       <c r="E23" t="n">
-        <v>858.26759567573</v>
+        <v>733.0051215799938</v>
       </c>
       <c r="F23" t="n">
-        <v>447.2816908861225</v>
+        <v>733.0051215799938</v>
       </c>
       <c r="G23" t="n">
-        <v>447.2816908861225</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
         <v>212.2335778049849</v>
@@ -5987,16 +5987,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X23" t="n">
-        <v>1971.284063821136</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y23" t="n">
-        <v>1971.284063821136</v>
+        <v>1477.059072784989</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>814.129334229901</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C24" t="n">
-        <v>639.676304948774</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
         <v>2344.749822082216</v>
@@ -6090,28 +6090,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2308.087315551589</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2146.853760452144</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T24" t="n">
-        <v>1947.311062506175</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U24" t="n">
-        <v>1719.130598160332</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V24" t="n">
-        <v>1483.978489928589</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W24" t="n">
-        <v>1229.741133200388</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X24" t="n">
-        <v>1021.889632994855</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y24" t="n">
-        <v>814.129334229901</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="25">
@@ -6184,13 +6184,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W25" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X25" t="n">
-        <v>2116.760271184199</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y25" t="n">
-        <v>1895.967692040669</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>960.8539546480588</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="C26" t="n">
-        <v>960.8539546480588</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="D26" t="n">
-        <v>960.8539546480588</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E26" t="n">
-        <v>960.8539546480588</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6254,22 +6254,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V26" t="n">
-        <v>1350.993286623871</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W26" t="n">
-        <v>1350.993286623871</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="X26" t="n">
-        <v>1350.993286623871</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="Y26" t="n">
-        <v>960.8539546480588</v>
+        <v>1734.412508859107</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>152.2107680396221</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>152.2107680396221</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
         <v>273.1268607498447</v>
@@ -6342,13 +6342,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1460.197257673872</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1252.345757468339</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6415,16 +6415,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V28" t="n">
-        <v>2294.08599426804</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="W28" t="n">
-        <v>2004.66882423108</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X28" t="n">
-        <v>2004.66882423108</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y28" t="n">
         <v>1783.87624508755</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1228.376076575211</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="C29" t="n">
-        <v>859.413559634799</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D29" t="n">
-        <v>859.413559634799</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E29" t="n">
-        <v>473.6253070365547</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F29" t="n">
-        <v>62.63940224694716</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
         <v>46.89499644164432</v>
@@ -6467,7 +6467,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376119</v>
@@ -6482,31 +6482,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>2344.749822082216</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="V29" t="n">
-        <v>2344.749822082216</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="W29" t="n">
-        <v>1991.981166812102</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="X29" t="n">
-        <v>1618.515408551022</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="Y29" t="n">
-        <v>1228.376076575211</v>
+        <v>1230.268993893618</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>1942.308778108447</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>274.7934182835589</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T31" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U31" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V31" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W31" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X31" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>2123.957242938686</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.89499644164391</v>
+        <v>165.9753497950912</v>
       </c>
       <c r="C32" t="n">
-        <v>46.89499644164391</v>
+        <v>165.9753497950912</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915531</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,7 +6719,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
@@ -6731,19 +6731,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645667</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302096</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319823</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="X32" t="n">
-        <v>556.1146817709025</v>
+        <v>556.114681770903</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.9753497950908</v>
+        <v>165.9753497950912</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>636.554030853528</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>462.101001572401</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>313.1665919111497</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2290.276285501115</v>
+        <v>1937.95109614987</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1709.770631804027</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1474.618523572284</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1220.381166844083</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1012.52966663855</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>804.7693678735961</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M34" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N34" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O34" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>2307.896927073277</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>2307.896927073277</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>2307.896927073277</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>2307.896927073277</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>2307.896927073277</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V34" t="n">
-        <v>2307.896927073277</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W34" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1717.497641706004</v>
+        <v>979.3791047457173</v>
       </c>
       <c r="C35" t="n">
-        <v>1717.497641706004</v>
+        <v>979.3791047457173</v>
       </c>
       <c r="D35" t="n">
-        <v>1359.231943099253</v>
+        <v>621.1134061389669</v>
       </c>
       <c r="E35" t="n">
-        <v>1359.231943099253</v>
+        <v>621.1134061389669</v>
       </c>
       <c r="F35" t="n">
-        <v>948.2460383096459</v>
+        <v>621.1134061389669</v>
       </c>
       <c r="G35" t="n">
-        <v>529.9742707925307</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
         <v>212.2335778049849</v>
@@ -6935,16 +6935,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U35" t="n">
-        <v>2090.963399967084</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V35" t="n">
-        <v>2090.963399967084</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="W35" t="n">
-        <v>2090.963399967084</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="X35" t="n">
-        <v>1717.497641706004</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="Y35" t="n">
-        <v>1717.497641706004</v>
+        <v>1365.978944809839</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>910.756968086303</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>736.303938805176</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>587.3695291439248</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>428.1320741384692</v>
       </c>
       <c r="F36" t="n">
         <v>359.7197682838247</v>
@@ -7017,49 +7017,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>2062.095821155272</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1748.821460805059</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1494.584104076858</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1286.732603871325</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>1078.972305106371</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2344.749822082216</v>
+        <v>2080.882831997796</v>
       </c>
       <c r="C37" t="n">
-        <v>2175.813639154309</v>
+        <v>2080.882831997796</v>
       </c>
       <c r="D37" t="n">
-        <v>2090.76590134653</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="E37" t="n">
-        <v>1942.852807764137</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="F37" t="n">
-        <v>1942.852807764137</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G37" t="n">
-        <v>1942.852807764137</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H37" t="n">
         <v>1783.87624508755</v>
@@ -7129,16 +7129,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V37" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W37" t="n">
-        <v>2344.749822082216</v>
+        <v>2080.882831997796</v>
       </c>
       <c r="X37" t="n">
-        <v>2344.749822082216</v>
+        <v>2080.882831997796</v>
       </c>
       <c r="Y37" t="n">
-        <v>2344.749822082216</v>
+        <v>2080.882831997796</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1344.273176883296</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="C38" t="n">
-        <v>975.3106599428841</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D38" t="n">
-        <v>975.3106599428841</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E38" t="n">
-        <v>589.5224073446398</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F38" t="n">
-        <v>178.5365025550322</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
-        <v>178.5365025550322</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>178.5365025550322</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7193,31 +7193,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T38" t="n">
-        <v>2087.181164129222</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="U38" t="n">
-        <v>2087.181164129222</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="V38" t="n">
-        <v>2087.181164129222</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="W38" t="n">
-        <v>1734.412508859107</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="X38" t="n">
-        <v>1734.412508859107</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="Y38" t="n">
-        <v>1344.273176883296</v>
+        <v>1989.169136893773</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
         <v>974.4476973832902</v>
@@ -7275,28 +7275,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.8311793695513</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G40" t="n">
         <v>46.89499644164432</v>
@@ -7360,22 +7360,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>397.6814015253746</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>397.6814015253746</v>
       </c>
       <c r="V40" t="n">
-        <v>353.0840852304234</v>
+        <v>397.6814015253746</v>
       </c>
       <c r="W40" t="n">
-        <v>353.0840852304234</v>
+        <v>397.6814015253746</v>
       </c>
       <c r="X40" t="n">
-        <v>353.0840852304234</v>
+        <v>397.6814015253746</v>
       </c>
       <c r="Y40" t="n">
-        <v>353.0840852304234</v>
+        <v>397.6814015253746</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1581.144731845325</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="C41" t="n">
-        <v>1212.182214904913</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="D41" t="n">
-        <v>1212.182214904913</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="E41" t="n">
-        <v>826.3939623066688</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="F41" t="n">
-        <v>826.3939623066688</v>
+        <v>817.3901717856031</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>399.118404268488</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>68.76979494252924</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7448,13 +7448,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.749822082216</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X41" t="n">
-        <v>1971.284063821136</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y41" t="n">
-        <v>1581.144731845325</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>829.8930637200692</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7491,22 +7491,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7533,7 +7533,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="43">
@@ -7597,19 +7597,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>2327.741878547514</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>2038.560733293437</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V43" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W43" t="n">
-        <v>1783.87624508755</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X43" t="n">
-        <v>1783.87624508755</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y43" t="n">
         <v>1783.87624508755</v>
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>828.7376962564549</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C44" t="n">
-        <v>828.7376962564549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D44" t="n">
-        <v>828.7376962564549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E44" t="n">
-        <v>828.7376962564549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>828.7376962564549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
         <v>392.9020949275671</v>
@@ -7673,25 +7673,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1941.571949851771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U44" t="n">
-        <v>1941.571949851771</v>
+        <v>2249.893986296754</v>
       </c>
       <c r="V44" t="n">
-        <v>1941.571949851771</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="W44" t="n">
-        <v>1588.803294581656</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X44" t="n">
-        <v>1215.337536320577</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y44" t="n">
-        <v>1215.337536320577</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="45">
@@ -7707,16 +7707,16 @@
         <v>508.1234744593334</v>
       </c>
       <c r="D45" t="n">
-        <v>508.1234744593334</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7725,25 +7725,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2249.819014925703</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C46" t="n">
-        <v>2080.882831997796</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D46" t="n">
-        <v>1930.76619258546</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E46" t="n">
-        <v>1930.76619258546</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F46" t="n">
         <v>1783.87624508755</v>
@@ -7825,31 +7825,31 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Q46" t="n">
-        <v>2303.765562347826</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R46" t="n">
-        <v>2249.819014925703</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S46" t="n">
-        <v>2249.819014925703</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T46" t="n">
-        <v>2249.819014925703</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="U46" t="n">
-        <v>2249.819014925703</v>
+        <v>1827.670254986225</v>
       </c>
       <c r="V46" t="n">
-        <v>2249.819014925703</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W46" t="n">
-        <v>2249.819014925703</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X46" t="n">
-        <v>2249.819014925703</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y46" t="n">
-        <v>2249.819014925703</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509598</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>402.1320537071166</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>57.08896698613911</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579837</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613911</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108655</v>
       </c>
       <c r="M39" t="n">
-        <v>309.749325445695</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998488</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>402.132053707116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264.8442918435686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>138.7054404458479</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23352,10 +23352,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,16 +23385,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>30.45538403358719</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23495,7 +23495,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>212.3352500859092</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23631,13 +23631,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>111.384007536242</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>97.46670409619253</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>78.2722373409284</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23732,25 +23732,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>45.7956457297952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23823,13 +23823,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>157.3962949198572</v>
+        <v>159.3462656328123</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>135.9270388620423</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
@@ -23935,7 +23935,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23944,7 +23944,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>175.3188013179488</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>393.1106482985858</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.9864959217995</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,10 +24096,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>105.6924183331601</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>76.57988169550505</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>10.39861340794073</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>78.35746072876532</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,13 +24215,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>225.5703447373843</v>
       </c>
       <c r="H23" t="n">
-        <v>94.34749128237294</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24300,10 +24300,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.54341993217017</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.86144769834929</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>175.5524658530034</v>
       </c>
     </row>
     <row r="26">
@@ -24446,13 +24446,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>213.9812932160109</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>67.9577494085562</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,19 +24528,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.701185177411446</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24582,13 +24582,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.384007536242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24655,19 +24655,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>201.9804537877939</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.6851342372356</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.5020880946942</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>6.92637979152417</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>10.3986134079401</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,13 +24883,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>37.69782020388197</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>264.8442918435682</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>236.7934918007705</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -25005,16 +25005,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>143.6184697512195</v>
+        <v>14.27705323942848</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.090051078196296</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
@@ -25129,13 +25129,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,13 +25163,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>336.3431430240009</v>
       </c>
       <c r="H35" t="n">
-        <v>12.48183717502883</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25242,7 +25242,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>77.34102959728577</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>137.1803309947772</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -25312,22 +25312,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>64.41821258851074</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25369,10 +25369,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>277.4323214768429</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25403,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>33.36010449745316</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>47.12121517158226</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>53.38246657340301</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25482,13 +25482,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.95160337967388</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.3867970498209</v>
@@ -25600,13 +25600,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>17.63313743166907</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,25 +25628,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>133.1153924179761</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>142.0291450338311</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>157.3962949198573</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25716,16 +25716,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25837,22 +25837,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>208.78157352414</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5524658530034</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>130.7950958076877</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>157.3412804663736</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,10 +25947,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>39.63080978485961</v>
       </c>
       <c r="E45" t="n">
-        <v>155.7946237350313</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.4465608509556</v>
@@ -26065,22 +26065,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>99.40727362826368</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>208.7815735241399</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985391</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985393</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985393</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>568235.8739985394</v>
+        <v>568235.8739985393</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568235.8739985391</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985393</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568235.8739985394</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>383345.344658112</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="F2" t="n">
-        <v>383345.3446581123</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="G2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="H2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="I2" t="n">
         <v>383345.3446581123</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383345.3446581122</v>
       </c>
       <c r="J2" t="n">
         <v>383345.3446581122</v>
@@ -26341,16 +26341,16 @@
         <v>383345.3446581123</v>
       </c>
       <c r="L2" t="n">
+        <v>383345.3446581123</v>
+      </c>
+      <c r="M2" t="n">
+        <v>383345.3446581123</v>
+      </c>
+      <c r="N2" t="n">
+        <v>383345.3446581123</v>
+      </c>
+      <c r="O2" t="n">
         <v>383345.3446581122</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383345.3446581122</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383345.3446581122</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383345.3446581121</v>
       </c>
       <c r="P2" t="n">
         <v>383345.3446581122</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="C4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761897</v>
       </c>
       <c r="F4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="G4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="H4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="I4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="J4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="K4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="L4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="M4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="N4" t="n">
-        <v>27764.31241904687</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
-        <v>27764.31241904687</v>
+        <v>26710.01986761898</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160969.1434226789</v>
+        <v>161976.7870092173</v>
       </c>
       <c r="C6" t="n">
-        <v>241738.5749542266</v>
+        <v>242746.2185407651</v>
       </c>
       <c r="D6" t="n">
-        <v>241738.5749542268</v>
+        <v>242746.2185407652</v>
       </c>
       <c r="E6" t="n">
-        <v>-32253.03266533413</v>
+        <v>-31198.74011390604</v>
       </c>
       <c r="F6" t="n">
-        <v>313359.3101136188</v>
+        <v>314413.6026650466</v>
       </c>
       <c r="G6" t="n">
-        <v>313359.3101136187</v>
+        <v>314413.6026650466</v>
       </c>
       <c r="H6" t="n">
-        <v>313359.3101136188</v>
+        <v>314413.6026650466</v>
       </c>
       <c r="I6" t="n">
-        <v>313359.3101136188</v>
+        <v>314413.6026650468</v>
       </c>
       <c r="J6" t="n">
-        <v>250299.3675145126</v>
+        <v>251353.6600659405</v>
       </c>
       <c r="K6" t="n">
-        <v>313359.3101136188</v>
+        <v>314413.6026650468</v>
       </c>
       <c r="L6" t="n">
-        <v>313359.3101136188</v>
+        <v>314413.6026650468</v>
       </c>
       <c r="M6" t="n">
-        <v>227340.7762935427</v>
+        <v>228395.0688449707</v>
       </c>
       <c r="N6" t="n">
-        <v>313359.3101136187</v>
+        <v>314413.6026650468</v>
       </c>
       <c r="O6" t="n">
-        <v>313359.3101136187</v>
+        <v>314413.6026650466</v>
       </c>
       <c r="P6" t="n">
-        <v>313359.3101136187</v>
+        <v>314413.6026650466</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>192.6272392768849</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>335.8613673013232</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,19 +27433,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>83.41100216615251</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27506,25 +27506,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27625,10 +27625,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>204.5813593128142</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>179.6244982918735</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>120.3355792116618</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>29.50926500492315</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.05569651810563</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>356.9080190684723</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>179.6244982918735</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.9526345551508</v>
+        <v>63.57620787701285</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31756,7 +31756,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31777,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31847,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31993,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32020,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32096,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32105,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35422,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,16 +35498,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35653,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
-        <v>424.5361405300201</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35744,7 +35744,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36452,7 +36452,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547479</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36911,7 +36911,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36926,7 +36926,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>231.4844522093428</v>
@@ -37160,13 +37160,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37394,7 +37394,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37403,7 +37403,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K39" t="n">
         <v>231.4844522093429</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M39" t="n">
-        <v>332.1534122685986</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
         <v>516.8936174628016</v>
@@ -37859,7 +37859,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674913</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37877,7 +37877,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848623</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
@@ -38114,7 +38114,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2038457.948767433</v>
+        <v>2071036.163282631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584665</v>
+        <v>460545.8926584662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7431891.992579308</v>
+        <v>7431891.992579307</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>89.29749682216323</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.17397730301329</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.80371536444976</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.10948635297698</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>90.36004757168706</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>198.7050131246913</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.9569757728545</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,10 +1223,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>89.01476480042484</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,58 +1293,58 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>352.0248783365585</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1387,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>188.3396827868512</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>123.6077575056603</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1464,10 +1466,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>167.0918869329224</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>4.812045700447308</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -1546,10 +1548,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>232.0095242284297</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1746,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>154.2282790647271</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>156.848207690687</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>117.889549819912</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>114.6138283597965</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
@@ -1986,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>46.42671957066515</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.494009160888949</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>210.7159206761549</v>
       </c>
       <c r="F20" t="n">
-        <v>13.76539744312569</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>120.9673892710046</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>121.4165796131833</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8482076906871</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>13.69289171884263</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>188.5187051045597</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>37.32347929802719</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,19 +2405,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>112.637689266747</v>
       </c>
       <c r="G24" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2.781652662641396</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>53.14246871389719</v>
       </c>
       <c r="D26" t="n">
-        <v>140.7017484046721</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,16 +2642,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>104.262613881998</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>114.6138283597967</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.03218749909109</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>16.83786409935544</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>57.20387012864189</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>244.322178102457</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2883,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>106.2387529750474</v>
       </c>
       <c r="T30" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>156.8482076906877</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>88.90986270619094</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>117.8895498199124</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>117.8895498199124</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>183.2702177270811</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>134.7667708518125</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>268.7418428881282</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>16.60419956430028</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>369.1381077138932</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>77.74590681794307</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>67.72818279609811</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3399,16 +3401,16 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>94.38897766723555</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>9.090676859748122</v>
+        <v>218.0460639929611</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>117.889549819912</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>170.6617166031552</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>119.3260324149127</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,13 +3593,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>45.56224815806319</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.9863001918263</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>21.65605051587607</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>220.5787379336302</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>15.31220406845842</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3910,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.852073263924503</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>209.3517278892803</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>93.90727742760758</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4058,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>107.8142557797791</v>
+        <v>16.91387525328438</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,7 +4073,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>43.35606979968811</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>245.0636885987331</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.4806348497715</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4410,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>485.4562706347935</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y3" t="n">
-        <v>277.6959718698396</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.1327311248648</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D5" t="n">
-        <v>285.1327311248648</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>772.0302844130649</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>528.5815077689649</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.6327430815143</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="C6" t="n">
-        <v>344.6327430815143</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="D6" t="n">
-        <v>317.2494235330527</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="E6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>512.8480801015824</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.1327311248648</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>528.5815077689649</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>528.5815077689649</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>179.2727307684539</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="C9" t="n">
-        <v>179.2727307684539</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4884,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>874.1432516718232</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>874.1432516718232</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>874.1432516718232</v>
       </c>
       <c r="V9" t="n">
-        <v>526.7184526376595</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="W9" t="n">
-        <v>283.2696759935595</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="X9" t="n">
-        <v>283.2696759935595</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="Y9" t="n">
-        <v>283.2696759935595</v>
+        <v>638.9911434400805</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4990,22 +4992,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="C11" t="n">
-        <v>1975.787305141805</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.521606535054</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E11" t="n">
-        <v>1231.73335393681</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F11" t="n">
-        <v>820.7474491472024</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4756816300872</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>814.129334229901</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C12" t="n">
-        <v>639.676304948774</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D12" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5121,22 +5123,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5145,25 +5147,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y12" t="n">
-        <v>982.344671249969</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5227,22 +5229,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="D14" t="n">
         <v>1757.628112035911</v>
@@ -5276,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5315,13 +5317,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1991.981166812102</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5357,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5382,19 +5384,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2183.516266982771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>1983.973569036802</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
-        <v>1755.793104690959</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
-        <v>1520.640996459217</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1364.854855989795</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
         <v>1364.854855989795</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>205.3275294625403</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5440,46 +5442,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>386.97599429278</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9753497950908</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9753497950908</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9753497950908</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9753497950908</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9753497950908</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9753497950908</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9753497950908</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9753497950908</v>
+        <v>2115.893810642661</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>783.0885888266431</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C18" t="n">
-        <v>608.6355595455161</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="D18" t="n">
-        <v>459.7011498842648</v>
+        <v>459.978881112182</v>
       </c>
       <c r="E18" t="n">
-        <v>300.4636948788093</v>
+        <v>300.7414261067265</v>
       </c>
       <c r="F18" t="n">
-        <v>153.9291369056942</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G18" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
         <v>46.89499644164432</v>
@@ -5592,16 +5594,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
         <v>1486.172378671464</v>
@@ -5619,25 +5621,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X18" t="n">
-        <v>1159.064224611665</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y18" t="n">
-        <v>951.3039258467111</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>225.4210876128734</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>56.48490468496649</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>56.48490468496649</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>56.48490468496649</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
         <v>46.89499644164432</v>
@@ -5695,28 +5697,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>453.4106385108907</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>453.4106385108907</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W19" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>225.4210876128734</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.4210876128734</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>837.3369044272531</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="C20" t="n">
-        <v>837.3369044272531</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="D20" t="n">
-        <v>479.0712058205026</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="E20" t="n">
-        <v>479.0712058205026</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F20" t="n">
-        <v>465.1667639587595</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5777,25 +5779,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>1907.76828710506</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V20" t="n">
-        <v>1576.705399761489</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W20" t="n">
-        <v>1223.936744491375</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X20" t="n">
-        <v>1223.936744491375</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y20" t="n">
-        <v>1223.936744491375</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.1634746939509</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
-        <v>746.7104454128239</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>597.7760357515726</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
         <v>2193.291384540003</v>
@@ -5853,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2222.560539990292</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1994.38007564445</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1759.227967412707</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W21" t="n">
-        <v>1504.990610684506</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X21" t="n">
-        <v>1297.139110478973</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.378811714019</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>205.3275294625404</v>
+        <v>2116.760271184199</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>1947.824088256292</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>1797.707448843957</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>1797.707448843957</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X22" t="n">
-        <v>607.7685734363102</v>
+        <v>2116.760271184199</v>
       </c>
       <c r="Y22" t="n">
-        <v>386.9759942927801</v>
+        <v>2116.760271184199</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1477.059072784989</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C23" t="n">
-        <v>1477.059072784989</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D23" t="n">
-        <v>1118.793374178238</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E23" t="n">
-        <v>733.0051215799938</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F23" t="n">
-        <v>733.0051215799938</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.1984047608</v>
+        <v>2232.675792851824</v>
       </c>
       <c r="U23" t="n">
-        <v>1867.1984047608</v>
+        <v>1978.889370736692</v>
       </c>
       <c r="V23" t="n">
-        <v>1867.1984047608</v>
+        <v>1978.889370736692</v>
       </c>
       <c r="W23" t="n">
-        <v>1867.1984047608</v>
+        <v>1978.889370736692</v>
       </c>
       <c r="X23" t="n">
-        <v>1867.1984047608</v>
+        <v>1978.889370736692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1477.059072784989</v>
+        <v>1978.889370736692</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6069,22 +6071,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6093,25 +6095,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2284.306083296871</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>338.8858918600055</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>49.70474660592856</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>49.70474660592856</v>
       </c>
       <c r="W25" t="n">
-        <v>2055.332652045256</v>
+        <v>49.70474660592856</v>
       </c>
       <c r="X25" t="n">
-        <v>1827.343101147238</v>
+        <v>49.70474660592856</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.87624508755</v>
+        <v>49.70474660592856</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1734.412508859107</v>
+        <v>1751.301304452715</v>
       </c>
       <c r="C26" t="n">
-        <v>1734.412508859107</v>
+        <v>1697.622043125546</v>
       </c>
       <c r="D26" t="n">
-        <v>1592.28953067257</v>
+        <v>1339.356344518795</v>
       </c>
       <c r="E26" t="n">
-        <v>1206.501278074326</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F26" t="n">
-        <v>795.5153732847182</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2087.181164129222</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U26" t="n">
-        <v>2087.181164129222</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V26" t="n">
-        <v>2087.181164129222</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W26" t="n">
-        <v>1734.412508859107</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X26" t="n">
-        <v>1734.412508859107</v>
+        <v>1751.301304452715</v>
       </c>
       <c r="Y26" t="n">
-        <v>1734.412508859107</v>
+        <v>1751.301304452715</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>667.5947762567861</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>493.141746975659</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E27" t="n">
-        <v>298.7453260127371</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F27" t="n">
-        <v>152.2107680396221</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G27" t="n">
-        <v>152.2107680396221</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6303,19 +6305,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
         <v>2039.343247810003</v>
@@ -6330,25 +6332,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2168.534539499097</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>1968.991841553128</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1740.811377207285</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1505.659268975542</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1251.421912247341</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1043.570412041808</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>835.8101132768541</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>2055.568676828139</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>1800.884188622252</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X28" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="Y28" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>843.6691538294961</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="C29" t="n">
-        <v>843.6691538294961</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="D29" t="n">
-        <v>843.6691538294961</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="E29" t="n">
-        <v>457.8809012312519</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2286.968135083589</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2103.773022221565</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2103.773022221565</v>
       </c>
       <c r="U29" t="n">
-        <v>1620.40832586943</v>
+        <v>2103.773022221565</v>
       </c>
       <c r="V29" t="n">
-        <v>1620.40832586943</v>
+        <v>2103.773022221565</v>
       </c>
       <c r="W29" t="n">
-        <v>1620.40832586943</v>
+        <v>2103.773022221565</v>
       </c>
       <c r="X29" t="n">
-        <v>1620.40832586943</v>
+        <v>1730.307263960485</v>
       </c>
       <c r="Y29" t="n">
-        <v>1230.268993893618</v>
+        <v>1340.167931984673</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,49 +6545,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.276285501115</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1942.308778108447</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>517.9606313088447</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082216</v>
+        <v>517.9606313088447</v>
       </c>
       <c r="W31" t="n">
-        <v>2344.749822082216</v>
+        <v>228.543461271884</v>
       </c>
       <c r="X31" t="n">
-        <v>2344.749822082216</v>
+        <v>228.543461271884</v>
       </c>
       <c r="Y31" t="n">
-        <v>2123.957242938686</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165.9753497950912</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="C32" t="n">
-        <v>165.9753497950912</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915531</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,7 +6721,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
@@ -6731,19 +6733,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645668</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302097</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319828</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X32" t="n">
-        <v>556.114681770903</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.9753497950912</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>636.554030853528</v>
+        <v>774.6289167208359</v>
       </c>
       <c r="C33" t="n">
-        <v>462.101001572401</v>
+        <v>600.175887439709</v>
       </c>
       <c r="D33" t="n">
-        <v>313.1665919111497</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="E33" t="n">
-        <v>153.9291369056942</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="F33" t="n">
-        <v>153.9291369056942</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G33" t="n">
         <v>153.9291369056942</v>
@@ -6780,19 +6782,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6801,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>1937.95109614987</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U33" t="n">
-        <v>1709.770631804027</v>
+        <v>1847.845517671335</v>
       </c>
       <c r="V33" t="n">
-        <v>1474.618523572284</v>
+        <v>1612.693409439592</v>
       </c>
       <c r="W33" t="n">
-        <v>1220.381166844083</v>
+        <v>1358.456052711391</v>
       </c>
       <c r="X33" t="n">
-        <v>1012.52966663855</v>
+        <v>1150.604552505858</v>
       </c>
       <c r="Y33" t="n">
-        <v>804.7693678735961</v>
+        <v>942.8442537409039</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6891,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>336.3121664786049</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="X34" t="n">
         <v>46.89499644164432</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>979.3791047457173</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C35" t="n">
-        <v>979.3791047457173</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D35" t="n">
-        <v>621.1134061389669</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E35" t="n">
-        <v>621.1134061389669</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F35" t="n">
-        <v>621.1134061389669</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6941,7 +6943,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6965,22 +6967,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V35" t="n">
-        <v>1756.118276785651</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W35" t="n">
-        <v>1756.118276785651</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="X35" t="n">
-        <v>1756.118276785651</v>
+        <v>809.9011038860351</v>
       </c>
       <c r="Y35" t="n">
-        <v>1365.978944809839</v>
+        <v>419.7617719102234</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>910.756968086303</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>736.303938805176</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>587.3695291439248</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>428.1320741384692</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
         <v>359.7197682838247</v>
@@ -7014,52 +7016,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1983.973569036802</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1748.821460805059</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1494.584104076858</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="X36" t="n">
-        <v>1286.732603871325</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>1078.972305106371</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2080.882831997796</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C37" t="n">
-        <v>2080.882831997796</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D37" t="n">
-        <v>1930.76619258546</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E37" t="n">
-        <v>1930.76619258546</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F37" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>2090.06533387633</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>2080.882831997796</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="X37" t="n">
-        <v>2080.882831997796</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="Y37" t="n">
-        <v>2080.882831997796</v>
+        <v>387.5200239484708</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1989.169136893773</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C38" t="n">
-        <v>1620.206619953362</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7172,13 +7174,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7193,31 +7195,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.554709220193</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>1989.169136893773</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U38" t="n">
-        <v>1989.169136893773</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V38" t="n">
-        <v>1989.169136893773</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W38" t="n">
-        <v>1989.169136893773</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X38" t="n">
-        <v>1989.169136893773</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y38" t="n">
-        <v>1989.169136893773</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>636.554030853528</v>
       </c>
       <c r="C39" t="n">
-        <v>501.6014190814661</v>
+        <v>462.101001572401</v>
       </c>
       <c r="D39" t="n">
-        <v>352.6670094202149</v>
+        <v>313.1665919111497</v>
       </c>
       <c r="E39" t="n">
-        <v>193.4295544147594</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F39" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
         <v>46.89499644164432</v>
@@ -7254,7 +7256,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
         <v>491.2196383161158</v>
@@ -7275,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2298.727349195284</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2137.493794095839</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1937.95109614987</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1709.770631804027</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1474.618523572284</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1220.381166844083</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1012.52966663855</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>804.7693678735961</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>216.0329366951349</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C40" t="n">
-        <v>216.0329366951349</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D40" t="n">
-        <v>216.0329366951349</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E40" t="n">
-        <v>216.0329366951349</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F40" t="n">
-        <v>216.0329366951349</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J40" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7360,22 +7362,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X40" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y40" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1228.376076575211</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C41" t="n">
-        <v>1228.376076575211</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D41" t="n">
-        <v>1228.376076575211</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E41" t="n">
-        <v>1228.376076575211</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F41" t="n">
-        <v>817.3901717856031</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>399.118404268488</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.76979494252924</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7439,22 +7441,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>1901.960256720229</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="W41" t="n">
-        <v>1991.981166812102</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="X41" t="n">
-        <v>1618.515408551022</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="Y41" t="n">
-        <v>1228.376076575211</v>
+        <v>1570.897369376658</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>829.8930637200692</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7491,22 +7493,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7521,19 +7523,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.1084007401373</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1783.87624508755</v>
+        <v>277.3671436649594</v>
       </c>
       <c r="C43" t="n">
-        <v>1783.87624508755</v>
+        <v>277.3671436649594</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>277.3671436649594</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>277.3671436649594</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>277.3671436649594</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>108.2292034114689</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>108.2292034114689</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="W43" t="n">
-        <v>2055.332652045256</v>
+        <v>277.3671436649594</v>
       </c>
       <c r="X43" t="n">
-        <v>1827.343101147238</v>
+        <v>277.3671436649594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1783.87624508755</v>
+        <v>277.3671436649594</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.857513382056</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="C44" t="n">
-        <v>46.89499644164432</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="D44" t="n">
-        <v>46.89499644164432</v>
+        <v>1583.30625124502</v>
       </c>
       <c r="E44" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F44" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
         <v>762.5916738244546</v>
@@ -7673,25 +7675,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U44" t="n">
-        <v>2249.893986296754</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V44" t="n">
-        <v>1918.831098953184</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="W44" t="n">
-        <v>1566.062443683069</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="X44" t="n">
-        <v>1192.59668542199</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="Y44" t="n">
-        <v>802.4573534461779</v>
+        <v>1941.571949851771</v>
       </c>
     </row>
     <row r="45">
@@ -7704,19 +7706,19 @@
         <v>682.5765037404603</v>
       </c>
       <c r="C45" t="n">
-        <v>508.1234744593334</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="D45" t="n">
-        <v>399.2201857928898</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7725,25 +7727,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T46" t="n">
-        <v>2116.851400240302</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U46" t="n">
-        <v>1827.670254986225</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="X46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392491</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>200.8922269696948</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>390.8949017221348</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>200.8922269696948</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>57.08896698613911</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>108.5094987082738</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L39" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504499</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>108.5094987082737</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>30.70896332692212</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>138.7054404458479</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>42.92542614420708</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23352,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>30.45538403358719</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>140.6090023224839</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,10 +23436,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23467,7 +23469,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23495,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>122.6735173922533</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23634,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>97.46670409619253</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>10.39861340794084</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.7956457297952</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>101.1848071449755</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>30.45538403358742</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571426</v>
@@ -23859,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23874,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>159.3462656328123</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9270388620423</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
@@ -23935,7 +23937,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23944,16 +23946,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>171.2144493961069</v>
       </c>
       <c r="F20" t="n">
-        <v>393.1106482985858</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>76.57988169550505</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>130.2784035477363</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39861340794073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>131.7281563040886</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>225.5703447373843</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>180.4594524767103</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24291,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>32.43152312663689</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>177.0503275192959</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24415,22 +24417,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>175.5524658530034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>312.1304230571104</v>
       </c>
       <c r="D26" t="n">
-        <v>213.9812932160109</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24528,16 +24530,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.701185177411446</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24570,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>45.00739118865347</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.3888605238402</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24655,16 +24657,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>269.6851342372356</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>16.42593951141924</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>6.92637979152417</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24771,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>53.38246657340278</v>
       </c>
       <c r="T30" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>10.3986134079401</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24892,19 +24894,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>197.3794710953452</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>264.8442918435682</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>236.7934918007705</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>14.27705323942848</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>91.13188885057184</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>17.5474909134079</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247369</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>13.59573394958733</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>336.3431430240009</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
@@ -25214,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25242,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>77.34102959728577</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25287,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25369,10 +25371,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>277.4323214768429</v>
+        <v>68.47693434362995</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>264.8442918435686</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.12121517158226</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>53.38246657340301</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.27705323942823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,19 +25560,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25600,7 +25602,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>17.63313743166907</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25628,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>142.0291450338311</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>30.66981996035105</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>157.3962949198573</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>133.2262523649671</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>175.5524658530034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>172.5786421829815</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>157.3412804663736</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>39.63080978485961</v>
+        <v>130.5311903113544</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25959,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26068,22 +26070,22 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>208.7815735241399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>41.45930973785792</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985391</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568235.8739985391</v>
+        <v>568235.8739985393</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568235.8739985393</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>568235.8739985393</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>568235.8739985393</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985391</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985394</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568235.8739985393</v>
+        <v>568235.8739985395</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985391</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581121</v>
       </c>
       <c r="F2" t="n">
         <v>383345.3446581122</v>
@@ -26329,31 +26331,31 @@
         <v>383345.3446581122</v>
       </c>
       <c r="H2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581121</v>
       </c>
       <c r="I2" t="n">
-        <v>383345.3446581123</v>
+        <v>383345.3446581121</v>
       </c>
       <c r="J2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="K2" t="n">
-        <v>383345.3446581123</v>
+        <v>383345.3446581121</v>
       </c>
       <c r="L2" t="n">
-        <v>383345.3446581123</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="M2" t="n">
         <v>383345.3446581123</v>
       </c>
       <c r="N2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="O2" t="n">
         <v>383345.3446581123</v>
       </c>
-      <c r="O2" t="n">
-        <v>383345.3446581122</v>
-      </c>
       <c r="P2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="F4" t="n">
         <v>26710.01986761898</v>
@@ -26457,7 +26459,7 @@
         <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
-        <v>26710.01986761898</v>
+        <v>26710.01986761897</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161976.7870092173</v>
+        <v>161976.787009217</v>
       </c>
       <c r="C6" t="n">
-        <v>242746.2185407651</v>
+        <v>242746.2185407649</v>
       </c>
       <c r="D6" t="n">
-        <v>242746.2185407652</v>
+        <v>242746.2185407649</v>
       </c>
       <c r="E6" t="n">
-        <v>-31198.74011390604</v>
+        <v>-31198.74011390617</v>
       </c>
       <c r="F6" t="n">
         <v>314413.6026650466</v>
       </c>
       <c r="G6" t="n">
-        <v>314413.6026650466</v>
+        <v>314413.6026650467</v>
       </c>
       <c r="H6" t="n">
         <v>314413.6026650466</v>
       </c>
       <c r="I6" t="n">
-        <v>314413.6026650468</v>
+        <v>314413.6026650466</v>
       </c>
       <c r="J6" t="n">
         <v>251353.6600659405</v>
       </c>
       <c r="K6" t="n">
-        <v>314413.6026650468</v>
+        <v>314413.6026650466</v>
       </c>
       <c r="L6" t="n">
-        <v>314413.6026650468</v>
+        <v>314413.6026650467</v>
       </c>
       <c r="M6" t="n">
         <v>228395.0688449707</v>
       </c>
       <c r="N6" t="n">
+        <v>314413.6026650466</v>
+      </c>
+      <c r="O6" t="n">
         <v>314413.6026650468</v>
       </c>
-      <c r="O6" t="n">
-        <v>314413.6026650466</v>
-      </c>
       <c r="P6" t="n">
-        <v>314413.6026650466</v>
+        <v>314413.6026650468</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.6272392768849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27439,13 +27441,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>83.41100216615251</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>124.2710882616255</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27503,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>105.593260554236</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27558,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27588,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>320.8793262562332</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27664,7 +27666,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>179.6244982918735</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,16 +27700,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>120.3355792116618</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>67.28503288371388</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27716,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27792,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27822,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>166.5678786463162</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>179.6244982918735</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63.57620787701285</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,10 +27943,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27980,10 +27982,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>82.66840630341298</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -31756,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,16 +35500,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>360.937879158497</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35972,7 +35974,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>231.4844522093428</v>
@@ -36209,13 +36211,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
         <v>152.98832074971</v>
@@ -36437,7 +36439,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36455,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36686,7 +36688,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>402.8027153709875</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
@@ -36911,7 +36913,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36929,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37163,7 +37165,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>75.52871390503797</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37403,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
@@ -37634,7 +37636,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37874,10 +37876,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675625</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>75.52871390503797</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38114,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2071036.163282631</v>
+        <v>2029212.381613625</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584662</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7431891.992579307</v>
+        <v>7431891.992579308</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>52.42556848774763</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>218.0792724223796</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.17397730301329</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>50.29171516770224</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>90.36004757168706</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>175.5171288722966</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>175.0426595591498</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>89.01476480042484</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352.0248783365585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>143.6426902929369</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.6077575056603</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>49.88807204227309</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.812045700447308</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>232.0095242284297</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>109.9015126561283</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>15.69638162143981</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>156.848207690687</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>16.60419956430028</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>273.7371709321287</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1934,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>114.6138283597965</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>74.92746945432097</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>35.6088825600802</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>16.83786409935511</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>210.7159206761549</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>48.01606003525001</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>70.86518386913352</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2180,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2219,10 +2219,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>121.4165796131833</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>13.69289171884263</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>122.5415447766139</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>74.82770993982803</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>37.32347929802719</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>112.637689266747</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>152.3905186300745</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.781652662641396</v>
+        <v>15.90261509500219</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>53.14246871389719</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>148.5943837665134</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>114.6138283597967</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>165.3169064707586</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>43.03218749909109</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>71.61210134639187</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>315.9157019973699</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>57.20387012864189</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>80.68143142456248</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>106.2387529750474</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>81.73346310451278</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>88.90986270619094</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>117.8895498199124</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>355.0279860984074</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
@@ -3128,7 +3128,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>134.7667708518125</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>369.1381077138932</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>266.2612345578046</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3401,16 +3401,16 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>155.4595575521395</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>94.38897766723555</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.0460639929611</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>117.889549819912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>135.5283726370378</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.56224815806319</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3638,7 +3638,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>126.3916954670634</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3672,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>103.9357482121867</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>107.8463401578472</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>220.5787379336302</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3875,7 +3875,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>172.5161931289813</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>205.2475887525923</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3903,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.852073263924503</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>209.3517278892803</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>32.89184996287845</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>16.91387525328438</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4118,10 +4118,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>94.38897766723555</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>91.35315769505117</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>245.0636885987331</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C2" t="n">
-        <v>315.6850394389064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D2" t="n">
-        <v>315.6850394389064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>267.0905363345836</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>251.6332257132351</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6850394389064</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.5233881080029</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>279.5233881080029</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.5233881080029</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.9257720901863</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C5" t="n">
-        <v>752.9257720901863</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>718.7806050553886</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>718.7806050553886</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>475.3318284112885</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>82.15084464790441</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>82.15084464790441</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.9257720901863</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.3080510879349</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>111.3080510879349</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>111.3080510879349</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W6" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>279.5233881080029</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
         <v>41.77557929797318</v>
@@ -4752,25 +4752,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="C8" t="n">
-        <v>509.8046290289238</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4837,19 +4837,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>777.1547729109448</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>638.9911434400805</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C9" t="n">
-        <v>464.5381141589534</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D9" t="n">
-        <v>464.5381141589534</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>874.1432516718232</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>874.1432516718232</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>874.1432516718232</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>638.9911434400805</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>638.9911434400805</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>638.9911434400805</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>638.9911434400805</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1989.169136893773</v>
+        <v>1351.594904632848</v>
       </c>
       <c r="C11" t="n">
-        <v>1620.206619953362</v>
+        <v>1351.594904632848</v>
       </c>
       <c r="D11" t="n">
-        <v>1261.940921346611</v>
+        <v>1351.594904632848</v>
       </c>
       <c r="E11" t="n">
-        <v>876.152668748367</v>
+        <v>1351.594904632848</v>
       </c>
       <c r="F11" t="n">
-        <v>465.1667639587595</v>
+        <v>940.6089998432403</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>522.3372323261251</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>191.9886230001664</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5074,19 +5074,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1738.19474469697</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1738.19474469697</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1738.19474469697</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>665.4917812623953</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C12" t="n">
         <v>665.4917812623953</v>
@@ -5120,52 +5120,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2294.357830120324</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2133.124275020879</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>1933.58157707491</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1705.401112729067</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1470.249004497325</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1216.011647769123</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1008.16014756359</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>1008.16014756359</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
         <v>46.89499644164432</v>
@@ -5229,22 +5229,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>379.8701515943957</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V13" t="n">
-        <v>379.8701515943957</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W13" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1991.981166812102</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="C14" t="n">
-        <v>1991.981166812102</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5281,7 +5281,7 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
         <v>762.5916738244553</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1502.400353700083</v>
       </c>
       <c r="W14" t="n">
-        <v>1991.981166812102</v>
+        <v>1149.631698429969</v>
       </c>
       <c r="X14" t="n">
-        <v>1991.981166812102</v>
+        <v>1149.631698429969</v>
       </c>
       <c r="Y14" t="n">
-        <v>1991.981166812102</v>
+        <v>1149.631698429969</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5360,49 +5360,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.3275294625403</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
         <v>46.89499644164432</v>
@@ -5439,49 +5439,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363101</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363101</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.97599429278</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2115.893810642661</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>734.3830940919879</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>323.3971893023804</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V17" t="n">
-        <v>2115.893810642661</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W17" t="n">
-        <v>2115.893810642661</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X17" t="n">
-        <v>2115.893810642661</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.893810642661</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>783.3663200545602</v>
+        <v>774.6289167208359</v>
       </c>
       <c r="C18" t="n">
-        <v>608.9132907734332</v>
+        <v>600.175887439709</v>
       </c>
       <c r="D18" t="n">
-        <v>459.978881112182</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="E18" t="n">
-        <v>300.7414261067265</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="F18" t="n">
-        <v>184.9698823089523</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G18" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
         <v>46.89499644164432</v>
@@ -5594,25 +5594,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5621,25 +5621,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1856.582921005059</v>
+        <v>1847.845517671335</v>
       </c>
       <c r="V18" t="n">
-        <v>1621.430812773317</v>
+        <v>1612.693409439592</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.193456045115</v>
+        <v>1358.456052711391</v>
       </c>
       <c r="X18" t="n">
-        <v>1159.341955839582</v>
+        <v>1150.604552505858</v>
       </c>
       <c r="Y18" t="n">
-        <v>951.5816570746283</v>
+        <v>942.8442537409039</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>229.7535121820599</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F19" t="n">
         <v>46.89499644164432</v>
@@ -5703,22 +5703,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822333</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>63.90293997634646</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1584.684223757015</v>
+        <v>1310.441992089288</v>
       </c>
       <c r="C20" t="n">
-        <v>1584.684223757015</v>
+        <v>1310.441992089288</v>
       </c>
       <c r="D20" t="n">
-        <v>1584.684223757015</v>
+        <v>1310.441992089288</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>924.6537394910438</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>513.6678347014363</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>95.39606718432111</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>95.39606718432111</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X20" t="n">
-        <v>1971.284063821136</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y20" t="n">
-        <v>1971.284063821136</v>
+        <v>1697.04183215341</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V21" t="n">
-        <v>1695.349365905614</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2116.760271184199</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C22" t="n">
-        <v>1947.824088256292</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D22" t="n">
-        <v>1797.707448843957</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E22" t="n">
-        <v>1797.707448843957</v>
+        <v>170.6743345998402</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>170.6743345998402</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>170.6743345998402</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>170.6743345998402</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W22" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X22" t="n">
-        <v>2116.760271184199</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y22" t="n">
-        <v>2116.760271184199</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1592.28953067257</v>
+        <v>1003.953985122954</v>
       </c>
       <c r="C23" t="n">
-        <v>1592.28953067257</v>
+        <v>1003.953985122954</v>
       </c>
       <c r="D23" t="n">
-        <v>1592.28953067257</v>
+        <v>1003.953985122954</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.501278074326</v>
+        <v>618.1657325247093</v>
       </c>
       <c r="F23" t="n">
-        <v>795.5153732847182</v>
+        <v>618.1657325247093</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6010,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T23" t="n">
-        <v>2232.675792851824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U23" t="n">
-        <v>1978.889370736692</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V23" t="n">
-        <v>1978.889370736692</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="W23" t="n">
-        <v>1978.889370736692</v>
+        <v>1003.953985122954</v>
       </c>
       <c r="X23" t="n">
-        <v>1978.889370736692</v>
+        <v>1003.953985122954</v>
       </c>
       <c r="Y23" t="n">
-        <v>1978.889370736692</v>
+        <v>1003.953985122954</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>298.7453260127371</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
         <v>46.89499644164432</v>
@@ -6071,22 +6071,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6110,10 +6110,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H25" t="n">
         <v>46.89499644164432</v>
@@ -6168,31 +6168,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>566.78431370192</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T25" t="n">
-        <v>338.8858918600055</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U25" t="n">
-        <v>49.70474660592856</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V25" t="n">
-        <v>49.70474660592856</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="W25" t="n">
-        <v>49.70474660592856</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="X25" t="n">
-        <v>49.70474660592856</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.70474660592856</v>
+        <v>391.0727469424309</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1751.301304452715</v>
+        <v>1149.563199400404</v>
       </c>
       <c r="C26" t="n">
-        <v>1697.622043125546</v>
+        <v>780.6006824599924</v>
       </c>
       <c r="D26" t="n">
-        <v>1339.356344518795</v>
+        <v>780.6006824599924</v>
       </c>
       <c r="E26" t="n">
-        <v>953.5680919205511</v>
+        <v>780.6006824599924</v>
       </c>
       <c r="F26" t="n">
-        <v>542.5821871309436</v>
+        <v>780.6006824599924</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>362.3289149428772</v>
       </c>
       <c r="H26" t="n">
         <v>212.2335778049849</v>
@@ -6229,10 +6229,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T26" t="n">
-        <v>2124.767062713795</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U26" t="n">
-        <v>2124.767062713795</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V26" t="n">
-        <v>2124.767062713795</v>
+        <v>1502.331854670518</v>
       </c>
       <c r="W26" t="n">
-        <v>2124.767062713795</v>
+        <v>1149.563199400404</v>
       </c>
       <c r="X26" t="n">
-        <v>1751.301304452715</v>
+        <v>1149.563199400404</v>
       </c>
       <c r="Y26" t="n">
-        <v>1751.301304452715</v>
+        <v>1149.563199400404</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>667.5947762567861</v>
+        <v>743.7701938734157</v>
       </c>
       <c r="C27" t="n">
-        <v>493.141746975659</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D27" t="n">
-        <v>344.2073373144078</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E27" t="n">
-        <v>184.9698823089523</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F27" t="n">
-        <v>184.9698823089523</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6308,16 +6308,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
         <v>2039.343247810003</v>
@@ -6329,28 +6329,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2168.534539499097</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>1968.991841553128</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>1740.811377207285</v>
+        <v>1816.986794823915</v>
       </c>
       <c r="V27" t="n">
-        <v>1505.659268975542</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W27" t="n">
-        <v>1251.421912247341</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X27" t="n">
-        <v>1043.570412041808</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y27" t="n">
-        <v>835.8101132768541</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.36185250133229</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="C28" t="n">
-        <v>90.36185250133229</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="D28" t="n">
-        <v>90.36185250133229</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="E28" t="n">
-        <v>90.36185250133229</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6423,13 +6423,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>318.3514033993496</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X28" t="n">
-        <v>90.36185250133229</v>
+        <v>535.4331175308639</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.36185250133229</v>
+        <v>535.4331175308639</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>953.5680919205511</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="C29" t="n">
-        <v>953.5680919205511</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="D29" t="n">
-        <v>953.5680919205511</v>
+        <v>1581.047691040924</v>
       </c>
       <c r="E29" t="n">
-        <v>953.5680919205511</v>
+        <v>1195.25943844268</v>
       </c>
       <c r="F29" t="n">
-        <v>542.5821871309436</v>
+        <v>784.2735336530725</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>366.0017661359573</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6484,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2286.968135083589</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2103.773022221565</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T29" t="n">
-        <v>2103.773022221565</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U29" t="n">
-        <v>2103.773022221565</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V29" t="n">
-        <v>2103.773022221565</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W29" t="n">
-        <v>2103.773022221565</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="X29" t="n">
-        <v>1730.307263960485</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="Y29" t="n">
-        <v>1340.167931984673</v>
+        <v>1939.313389647675</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>676.0544483625931</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C30" t="n">
-        <v>501.6014190814661</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="D30" t="n">
-        <v>352.6670094202149</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E30" t="n">
-        <v>193.4295544147594</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F30" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6545,13 +6545,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
         <v>1486.172378671464</v>
@@ -6569,25 +6569,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2176.994211604904</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T30" t="n">
-        <v>1977.451513658935</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U30" t="n">
-        <v>1749.271049313092</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V30" t="n">
-        <v>1514.118941081349</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.881584353148</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X30" t="n">
-        <v>1052.030084147615</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y30" t="n">
-        <v>844.2697853826612</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E31" t="n">
         <v>46.89499644164432</v>
@@ -6642,31 +6642,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>484.225260060998</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>484.225260060998</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>484.225260060998</v>
       </c>
       <c r="U31" t="n">
-        <v>517.9606313088447</v>
+        <v>484.225260060998</v>
       </c>
       <c r="V31" t="n">
-        <v>517.9606313088447</v>
+        <v>484.225260060998</v>
       </c>
       <c r="W31" t="n">
-        <v>228.543461271884</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="X31" t="n">
-        <v>228.543461271884</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="Y31" t="n">
-        <v>228.543461271884</v>
+        <v>194.8080900240374</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.89499644164391</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="C32" t="n">
-        <v>46.89499644164391</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164391</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164391</v>
+        <v>1154.129500656847</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164391</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164391</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915531</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645667</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302096</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319823</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="X32" t="n">
-        <v>556.1146817709025</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.9753497950908</v>
+        <v>1539.917753255091</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>774.6289167208359</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>600.175887439709</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>451.2414777784577</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>292.0040227730022</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6806,25 +6806,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="T33" t="n">
-        <v>1983.973569036802</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U33" t="n">
-        <v>1847.845517671335</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V33" t="n">
-        <v>1612.693409439592</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1358.456052711391</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>1150.604552505858</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>942.8442537409039</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.89499644164432</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="C35" t="n">
-        <v>46.89499644164432</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="D35" t="n">
-        <v>46.89499644164432</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6967,22 +6967,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U35" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V35" t="n">
-        <v>1536.135517417229</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W35" t="n">
-        <v>1183.366862147115</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X35" t="n">
-        <v>809.9011038860351</v>
+        <v>1818.230422151641</v>
       </c>
       <c r="Y35" t="n">
-        <v>419.7617719102234</v>
+        <v>1428.091090175829</v>
       </c>
     </row>
     <row r="36">
@@ -7019,43 +7019,43 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1364.854855989795</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
         <v>1364.854855989795</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7128,19 +7128,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W37" t="n">
-        <v>387.5200239484708</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X37" t="n">
-        <v>387.5200239484708</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>387.5200239484708</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7201,25 +7201,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319823</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X38" t="n">
-        <v>556.1146817709025</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.9753497950908</v>
+        <v>1154.00253148424</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>636.554030853528</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C39" t="n">
-        <v>462.101001572401</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D39" t="n">
-        <v>313.1665919111497</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E39" t="n">
-        <v>153.9291369056942</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F39" t="n">
         <v>153.9291369056942</v>
@@ -7256,13 +7256,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
         <v>1486.172378671464</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2298.727349195284</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2137.493794095839</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1937.95109614987</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1709.770631804027</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V39" t="n">
-        <v>1474.618523572284</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W39" t="n">
-        <v>1220.381166844083</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X39" t="n">
-        <v>1012.52966663855</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y39" t="n">
-        <v>804.7693678735961</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.7685734363102</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="C40" t="n">
-        <v>607.7685734363102</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="D40" t="n">
-        <v>607.7685734363102</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="E40" t="n">
-        <v>607.7685734363102</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="F40" t="n">
-        <v>570.9156784273715</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="G40" t="n">
-        <v>401.7777381738809</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="H40" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
         <v>46.89499644164432</v>
@@ -7362,22 +7362,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X40" t="n">
-        <v>607.7685734363102</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.7685734363102</v>
+        <v>151.8806006963783</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1570.897369376658</v>
+        <v>1069.789651777197</v>
       </c>
       <c r="C41" t="n">
-        <v>1201.934852436247</v>
+        <v>1069.789651777197</v>
       </c>
       <c r="D41" t="n">
-        <v>843.6691538294961</v>
+        <v>1069.789651777197</v>
       </c>
       <c r="E41" t="n">
-        <v>457.8809012312519</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2124.767062713795</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U41" t="n">
-        <v>1901.960256720229</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.897369376658</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="W41" t="n">
-        <v>1570.897369376658</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="X41" t="n">
-        <v>1570.897369376658</v>
+        <v>1459.928983753009</v>
       </c>
       <c r="Y41" t="n">
-        <v>1570.897369376658</v>
+        <v>1069.789651777197</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>676.0544483625931</v>
+        <v>683.1072072262029</v>
       </c>
       <c r="C42" t="n">
-        <v>501.6014190814661</v>
+        <v>508.654177945076</v>
       </c>
       <c r="D42" t="n">
-        <v>352.6670094202149</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="E42" t="n">
-        <v>193.4295544147594</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F42" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1749.271049313092</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1514.118941081349</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1259.881584353148</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>1052.030084147615</v>
+        <v>1059.082843011225</v>
       </c>
       <c r="Y42" t="n">
-        <v>844.2697853826612</v>
+        <v>851.322544246271</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>277.3671436649594</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C43" t="n">
-        <v>277.3671436649594</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D43" t="n">
-        <v>277.3671436649594</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E43" t="n">
-        <v>277.3671436649594</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F43" t="n">
-        <v>277.3671436649594</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2292034114689</v>
+        <v>162.848892943671</v>
       </c>
       <c r="H43" t="n">
-        <v>108.2292034114689</v>
+        <v>162.848892943671</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
@@ -7590,31 +7590,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>277.3671436649594</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>277.3671436649594</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.3671436649594</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1941.571949851771</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="C44" t="n">
-        <v>1941.571949851771</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="D44" t="n">
-        <v>1583.30625124502</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E44" t="n">
-        <v>1371.839859437666</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7654,10 +7654,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7675,25 +7675,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1941.571949851771</v>
+        <v>2311.525731210622</v>
       </c>
       <c r="U44" t="n">
-        <v>1941.571949851771</v>
+        <v>2311.525731210622</v>
       </c>
       <c r="V44" t="n">
-        <v>1941.571949851771</v>
+        <v>1980.462843867051</v>
       </c>
       <c r="W44" t="n">
-        <v>1941.571949851771</v>
+        <v>1627.694188596937</v>
       </c>
       <c r="X44" t="n">
-        <v>1941.571949851771</v>
+        <v>1627.694188596937</v>
       </c>
       <c r="Y44" t="n">
-        <v>1941.571949851771</v>
+        <v>1237.554856621126</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>682.5765037404603</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>682.5765037404603</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
         <v>665.4917812623953</v>
@@ -7730,49 +7730,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1266.403639731015</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="X45" t="n">
-        <v>1058.552139525482</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.7918407605284</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C46" t="n">
-        <v>205.8715591182311</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="D46" t="n">
-        <v>205.8715591182311</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="E46" t="n">
-        <v>205.8715591182311</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="F46" t="n">
-        <v>205.8715591182311</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G46" t="n">
-        <v>205.8715591182311</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="H46" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I46" t="n">
         <v>46.89499644164432</v>
@@ -7830,28 +7830,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W46" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X46" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.8715591182311</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998488</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212002</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>323.3866360392491</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>47.90390621998491</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>390.8949017221348</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889585</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.70896332692212</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>20.04250525677031</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.92542614420708</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.951229355218317</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>140.6090023224839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
         <v>139.0783256288915</v>
@@ -23469,16 +23469,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>122.6735173922533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>217.8507458140066</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>190.0766035820376</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39861340794084</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,10 +23673,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23712,16 +23712,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247369</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>140.3518789098153</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23791,16 +23791,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>101.1848071449755</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23822,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>30.45538403358742</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571426</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>150.9711902480634</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>110.825080086489</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
@@ -23943,16 +23943,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>269.6851342372359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>171.2144493961069</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>115.6691355144572</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>76.57988169550524</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,10 +24107,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>130.2784035477363</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>131.7281563040886</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>16.53678085227762</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24183,7 +24183,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>339.2613399021159</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>180.4594524767103</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24293,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>32.43152312663689</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>53.38246657340295</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.0503275192959</v>
+        <v>163.9293650869351</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>139.0783256288916</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>312.1304230571104</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>178.4507394661857</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>45.00739118865347</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>60.58175323162575</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3888605238402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>154.0975540426453</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>11.12942123532923</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>16.42593951141924</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
@@ -24739,16 +24739,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>66.76363414007628</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>53.38246657340278</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>71.08089247165255</v>
       </c>
       <c r="S31" t="n">
         <v>214.5288682289405</v>
@@ -24894,7 +24894,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>197.3794710953452</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>264.8442918435682</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>51.84805964330405</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25007,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>105.6924183331601</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>91.13188885057184</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.59573394958733</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>103.4698661206644</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>70.43910215024485</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,7 +25329,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25368,16 +25368,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.47693434362995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>208.8717912896821</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>264.8442918435686</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>271.3476731046736</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.27705323942823</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>99.50696423532092</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25560,19 +25560,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>53.4510488376342</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>274.0840299144146</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>30.66981996035105</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25715,19 +25715,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>53.38246657340306</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>0.5253964508851539</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>133.2262523649671</v>
+        <v>24.28396809188513</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>172.5786421829815</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>184.891081811859</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>130.5311903113544</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>75.89366340357667</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>54.86879163620181</v>
@@ -26070,7 +26070,7 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>41.45930973785792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985391</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568235.8739985391</v>
+        <v>568235.8739985394</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>568235.8739985391</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568235.8739985393</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985394</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985391</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>568235.8739985392</v>
+        <v>568235.8739985393</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568235.8739985391</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568235.8739985394</v>
+        <v>568235.8739985391</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568235.8739985395</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568235.8739985391</v>
+        <v>568235.8739985392</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516051</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516053</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
         <v>383345.3446581121</v>
       </c>
       <c r="F2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581121</v>
       </c>
       <c r="G2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="H2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="I2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="J2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="K2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="L2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="M2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="N2" t="n">
         <v>383345.3446581123</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>383345.3446581122</v>
       </c>
-      <c r="O2" t="n">
-        <v>383345.3446581123</v>
-      </c>
       <c r="P2" t="n">
-        <v>383345.3446581123</v>
+        <v>383345.3446581122</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161976.787009217</v>
+        <v>161976.7870092172</v>
       </c>
       <c r="C6" t="n">
-        <v>242746.2185407649</v>
+        <v>242746.2185407647</v>
       </c>
       <c r="D6" t="n">
-        <v>242746.2185407649</v>
+        <v>242746.2185407648</v>
       </c>
       <c r="E6" t="n">
-        <v>-31198.74011390617</v>
+        <v>-38505.97937230248</v>
       </c>
       <c r="F6" t="n">
-        <v>314413.6026650466</v>
+        <v>307106.3634066503</v>
       </c>
       <c r="G6" t="n">
-        <v>314413.6026650467</v>
+        <v>307106.3634066504</v>
       </c>
       <c r="H6" t="n">
-        <v>314413.6026650466</v>
+        <v>307106.3634066504</v>
       </c>
       <c r="I6" t="n">
-        <v>314413.6026650466</v>
+        <v>307106.3634066504</v>
       </c>
       <c r="J6" t="n">
-        <v>251353.6600659405</v>
+        <v>244046.4208075441</v>
       </c>
       <c r="K6" t="n">
-        <v>314413.6026650466</v>
+        <v>307106.3634066504</v>
       </c>
       <c r="L6" t="n">
-        <v>314413.6026650467</v>
+        <v>307106.3634066504</v>
       </c>
       <c r="M6" t="n">
-        <v>228395.0688449707</v>
+        <v>221087.8295865743</v>
       </c>
       <c r="N6" t="n">
-        <v>314413.6026650466</v>
+        <v>307106.3634066504</v>
       </c>
       <c r="O6" t="n">
-        <v>314413.6026650468</v>
+        <v>307106.3634066504</v>
       </c>
       <c r="P6" t="n">
-        <v>314413.6026650468</v>
+        <v>307106.3634066504</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>354.4504772539638</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>121.3955296933875</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>124.2710882616255</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27478,10 +27478,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>65.49716000536247</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27621,25 +27621,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>320.8793262562332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>160.1841744027037</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>67.28503288371388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>76.17785428862305</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>115.8205630125936</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27855,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>166.5678786463162</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>76.30299334868673</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>81.55953011607097</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>82.66840630341298</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,7 +27991,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7786181105064</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -31995,43 +31995,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32560,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35509,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>360.937879158497</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35974,16 +35974,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36211,16 +36211,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>14.92312141674913</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36457,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36688,7 +36688,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>402.8027153709875</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
@@ -36913,7 +36913,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36922,7 +36922,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
@@ -37387,7 +37387,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37396,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37405,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37633,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37870,16 +37870,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082065</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.4238170675625</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38037,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
@@ -38116,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
